--- a/Happiness/data/happiness_index.xlsx
+++ b/Happiness/data/happiness_index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\231702_幸福感预测\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/illusion/Documents/GIT/GitHub/Machine-Learning/Happiness/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7711D168-0FA8-AC42-8EA0-DD637BC25DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1532,8 +1533,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,7 +1558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +1568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,7 +1592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1609,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1883,23 +1893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
     <col min="3" max="3" width="43" style="2" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>455</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>460</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2026,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>463</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2060,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,7 +2128,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2145,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="1" t="s">
         <v>466</v>
       </c>
@@ -2151,7 +2162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -2185,7 +2196,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -2202,7 +2213,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2304,7 +2315,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2338,7 +2349,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -2355,7 +2366,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2372,7 +2383,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2389,7 +2400,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -2406,7 +2417,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="1" t="s">
         <v>469</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2457,7 +2468,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -2525,7 +2536,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -2593,7 +2604,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -2610,7 +2621,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -2678,7 +2689,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -2695,7 +2706,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -2729,7 +2740,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -2763,7 +2774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="1" t="s">
         <v>155</v>
       </c>
@@ -2780,7 +2791,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -2865,7 +2876,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -2882,7 +2893,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -2899,7 +2910,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -2950,7 +2961,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>194</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="1" t="s">
         <v>202</v>
       </c>
@@ -3018,7 +3029,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="1" t="s">
         <v>205</v>
       </c>
@@ -3035,7 +3046,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="1" t="s">
         <v>208</v>
       </c>
@@ -3052,7 +3063,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>211</v>
       </c>
@@ -3069,8 +3080,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3086,8 +3097,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3103,8 +3114,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3120,8 +3131,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3137,7 +3148,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="1" t="s">
         <v>230</v>
       </c>
@@ -3154,7 +3165,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="1" t="s">
         <v>234</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="1" t="s">
         <v>237</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="1" t="s">
         <v>240</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>243</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -3239,7 +3250,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>250</v>
       </c>
@@ -3256,7 +3267,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>254</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>258</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -3307,7 +3318,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="1" t="s">
         <v>266</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="1" t="s">
         <v>269</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" s="1" t="s">
         <v>272</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="1" t="s">
         <v>275</v>
       </c>
@@ -3375,7 +3386,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="1" t="s">
         <v>278</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" s="1" t="s">
         <v>281</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
@@ -3426,7 +3437,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" s="1" t="s">
         <v>287</v>
       </c>
@@ -3443,7 +3454,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="1" t="s">
         <v>473</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" s="1" t="s">
         <v>290</v>
       </c>
@@ -3477,7 +3488,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" s="1" t="s">
         <v>293</v>
       </c>
@@ -3494,7 +3505,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" s="1" t="s">
         <v>296</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -3528,7 +3539,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="1" t="s">
         <v>303</v>
       </c>
@@ -3545,7 +3556,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="1" t="s">
         <v>307</v>
       </c>
@@ -3562,7 +3573,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="1" t="s">
         <v>310</v>
       </c>
@@ -3579,7 +3590,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="1" t="s">
         <v>313</v>
       </c>
@@ -3596,7 +3607,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="1" t="s">
         <v>317</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="1" t="s">
         <v>321</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="1" t="s">
         <v>325</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="1" t="s">
         <v>329</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="1" t="s">
         <v>332</v>
       </c>
@@ -3681,7 +3692,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="1" t="s">
         <v>335</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="1" t="s">
         <v>338</v>
       </c>
@@ -3715,7 +3726,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="1" t="s">
         <v>341</v>
       </c>
@@ -3732,7 +3743,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="1" t="s">
         <v>344</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="1" t="s">
         <v>347</v>
       </c>
@@ -3766,7 +3777,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="1" t="s">
         <v>351</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="1" t="s">
         <v>354</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="1" t="s">
         <v>357</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="1" t="s">
         <v>360</v>
       </c>
@@ -3834,7 +3845,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>363</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>367</v>
       </c>
@@ -3868,7 +3879,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>371</v>
       </c>
@@ -3885,7 +3896,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>375</v>
       </c>
@@ -3902,7 +3913,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="1" t="s">
         <v>379</v>
       </c>
@@ -3919,7 +3930,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="1" t="s">
         <v>382</v>
       </c>
@@ -3936,7 +3947,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="1" t="s">
         <v>386</v>
       </c>
@@ -3953,7 +3964,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="1" t="s">
         <v>389</v>
       </c>
@@ -3970,7 +3981,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="1" t="s">
         <v>392</v>
       </c>
@@ -3987,7 +3998,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="1" t="s">
         <v>395</v>
       </c>
@@ -4004,7 +4015,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="1" t="s">
         <v>398</v>
       </c>
@@ -4021,7 +4032,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="1" t="s">
         <v>401</v>
       </c>
@@ -4038,7 +4049,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="1" t="s">
         <v>404</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="1" t="s">
         <v>407</v>
       </c>
@@ -4072,7 +4083,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="1" t="s">
         <v>410</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="1" t="s">
         <v>413</v>
       </c>
@@ -4106,7 +4117,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="1" t="s">
         <v>416</v>
       </c>
@@ -4123,7 +4134,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="1" t="s">
         <v>419</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="1" t="s">
         <v>422</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="1" t="s">
         <v>426</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="1" t="s">
         <v>430</v>
       </c>
@@ -4191,7 +4202,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="1" t="s">
         <v>433</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="1" t="s">
         <v>437</v>
       </c>
@@ -4225,7 +4236,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" s="1" t="s">
         <v>440</v>
       </c>
@@ -4242,7 +4253,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="1" t="s">
         <v>443</v>
       </c>
@@ -4259,7 +4270,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" s="1" t="s">
         <v>446</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" s="1" t="s">
         <v>449</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" s="1" t="s">
         <v>452</v>
       </c>
@@ -4311,7 +4322,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E142"/>
+  <autoFilter ref="E1:E142" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
